--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Doc\Assigned Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17E09966-DC63-4F97-B342-B64D21BA71D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -20,11 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -176,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,8 +219,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,8 +722,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -738,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{17E09966-DC63-4F97-B342-B64D21BA71D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E631C3FC-CFA6-4A21-9F8F-A6D1CEF88639}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Mã NV</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Họ và tên</t>
   </si>
   <si>
-    <t>Khối nghành</t>
-  </si>
-  <si>
     <t>Loại bằng</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>TP HCM</t>
   </si>
   <si>
-    <t>Khối Nghành I</t>
-  </si>
-  <si>
     <t>T155444</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Thạc Sĩ</t>
   </si>
   <si>
-    <t>Khối Nghành II</t>
-  </si>
-  <si>
     <t>Nguyễn Xuân Lộc 1</t>
   </si>
   <si>
@@ -157,16 +148,34 @@
     <t>Dương Quảng Hàm</t>
   </si>
   <si>
-    <t>Khối Nghành III</t>
-  </si>
-  <si>
-    <t>Khối Nghành IV</t>
-  </si>
-  <si>
     <t>Dương Quảng Hàm 1</t>
   </si>
   <si>
     <t>Nguyễn Xuân Lộc 3</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Hành chính</t>
+  </si>
+  <si>
+    <t>Khối ngành</t>
+  </si>
+  <si>
+    <t>Khối Ngành I</t>
+  </si>
+  <si>
+    <t>Khối Ngành II</t>
+  </si>
+  <si>
+    <t>Khối Ngành III</t>
+  </si>
+  <si>
+    <t>Khối Ngành IV</t>
+  </si>
+  <si>
+    <t>Nhân sự</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +570,7 @@
     <col min="25" max="25" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,33 +620,36 @@
         <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>35530</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4">
         <v>352363654</v>
@@ -646,78 +658,84 @@
         <v>42104</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1">
         <v>43200</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>35530</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1">
         <v>42104</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1">
         <v>43200</v>
       </c>
       <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,101 +772,101 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>43200</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>43441</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>43388</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>43388</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>43388</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Doc\Assigned Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E631C3FC-CFA6-4A21-9F8F-A6D1CEF88639}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Mã NV</t>
   </si>
@@ -80,9 +76,6 @@
     <t>Họ và tên</t>
   </si>
   <si>
-    <t>Khối nghành</t>
-  </si>
-  <si>
     <t>Loại bằng</t>
   </si>
   <si>
@@ -116,9 +109,6 @@
     <t>TP HCM</t>
   </si>
   <si>
-    <t>Khối Nghành I</t>
-  </si>
-  <si>
     <t>T155444</t>
   </si>
   <si>
@@ -128,9 +118,6 @@
     <t>Thạc Sĩ</t>
   </si>
   <si>
-    <t>Khối Nghành II</t>
-  </si>
-  <si>
     <t>Nguyễn Xuân Lộc 1</t>
   </si>
   <si>
@@ -161,22 +148,40 @@
     <t>Dương Quảng Hàm</t>
   </si>
   <si>
-    <t>Khối Nghành III</t>
-  </si>
-  <si>
-    <t>Khối Nghành IV</t>
-  </si>
-  <si>
     <t>Dương Quảng Hàm 1</t>
   </si>
   <si>
     <t>Nguyễn Xuân Lộc 3</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Hành chính</t>
+  </si>
+  <si>
+    <t>Khối ngành</t>
+  </si>
+  <si>
+    <t>Khối Ngành I</t>
+  </si>
+  <si>
+    <t>Khối Ngành II</t>
+  </si>
+  <si>
+    <t>Khối Ngành III</t>
+  </si>
+  <si>
+    <t>Khối Ngành IV</t>
+  </si>
+  <si>
+    <t>Nhân sự</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,8 +228,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +570,7 @@
     <col min="25" max="25" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,33 +620,36 @@
         <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>35530</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4">
         <v>352363654</v>
@@ -650,84 +658,90 @@
         <v>42104</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1">
         <v>43200</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>35530</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1">
         <v>42104</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1">
         <v>43200</v>
       </c>
       <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -738,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,101 +772,101 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>43200</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>43441</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>43388</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>43388</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>43388</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PortalVLU\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E631C3FC-CFA6-4A21-9F8F-A6D1CEF88639}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Mã NV</t>
   </si>
@@ -176,12 +175,21 @@
   </si>
   <si>
     <t>Nhân sự</t>
+  </si>
+  <si>
+    <t>Chuyên Ngành</t>
+  </si>
+  <si>
+    <t>Công Nghệ Thông Tin</t>
+  </si>
+  <si>
+    <t>Quản Trị Kinh Doanh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,8 +236,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,8 +748,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -752,120 +760,139 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1">
         <v>43200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1">
         <v>43441</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1">
         <v>43388</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1">
         <v>43388</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1">
         <v>43388</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>48</v>
       </c>
     </row>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Mã NV</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Đơn vị</t>
   </si>
   <si>
-    <t>Hành chính</t>
-  </si>
-  <si>
     <t>Khối ngành</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Khối Ngành IV</t>
   </si>
   <si>
-    <t>Nhân sự</t>
-  </si>
-  <si>
     <t>Chuyên Ngành</t>
   </si>
   <si>
@@ -184,6 +178,9 @@
   </si>
   <si>
     <t>Quản Trị Kinh Doanh</t>
+  </si>
+  <si>
+    <t>Quan Hệ Công Chúng</t>
   </si>
 </sst>
 </file>
@@ -551,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -743,7 +740,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
@@ -793,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>43200</v>
@@ -813,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>43441</v>
@@ -833,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>43388</v>
@@ -853,7 +850,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>43388</v>
@@ -873,7 +870,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,7 +881,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>43388</v>
@@ -893,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\PortalVLU\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
     <sheet name="thông tin bằng cấp" sheetId="3" r:id="rId2"/>
+    <sheet name="thông tin học hàm" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
   <si>
     <t>Mã NV</t>
   </si>
@@ -36,12 +37,6 @@
     <t>Nơi sinh</t>
   </si>
   <si>
-    <t>Địa chỉ thường trú</t>
-  </si>
-  <si>
-    <t>Địa chỉ liên lạc</t>
-  </si>
-  <si>
     <t>Giới tính</t>
   </si>
   <si>
@@ -60,9 +55,6 @@
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>Chức danh chuyên môn</t>
-  </si>
-  <si>
     <t>Điện thoại</t>
   </si>
   <si>
@@ -75,9 +67,6 @@
     <t>Họ và tên</t>
   </si>
   <si>
-    <t>Loại bằng</t>
-  </si>
-  <si>
     <t>Ngày cấp bằng</t>
   </si>
   <si>
@@ -96,18 +85,9 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>Công Nhân</t>
-  </si>
-  <si>
-    <t>Lao Công</t>
-  </si>
-  <si>
     <t>Đại Học</t>
   </si>
   <si>
-    <t>TP HCM</t>
-  </si>
-  <si>
     <t>T155444</t>
   </si>
   <si>
@@ -129,27 +109,15 @@
     <t>01632547854</t>
   </si>
   <si>
-    <t>caigivay@gmail.com</t>
-  </si>
-  <si>
     <t>352363653</t>
   </si>
   <si>
     <t>01632530555</t>
   </si>
   <si>
-    <t>Cô Giang</t>
-  </si>
-  <si>
     <t>Tiến Sĩ</t>
   </si>
   <si>
-    <t>Dương Quảng Hàm</t>
-  </si>
-  <si>
-    <t>Dương Quảng Hàm 1</t>
-  </si>
-  <si>
     <t>Nguyễn Xuân Lộc 3</t>
   </si>
   <si>
@@ -180,14 +148,225 @@
     <t>Quản Trị Kinh Doanh</t>
   </si>
   <si>
+    <t>Quê quán</t>
+  </si>
+  <si>
+    <t>Loại cán bộ</t>
+  </si>
+  <si>
+    <t>Kiêm nhiệm giảng dạy</t>
+  </si>
+  <si>
+    <t>Loại giảng viên</t>
+  </si>
+  <si>
+    <t>Chức danh nghề nghiệp</t>
+  </si>
+  <si>
+    <t>Đã nghỉ hưu</t>
+  </si>
+  <si>
+    <t>Danh hiệu nhà giáo ưu tú</t>
+  </si>
+  <si>
+    <t>Danh hiệu nhà giáo nhân dân</t>
+  </si>
+  <si>
+    <t>Đã nghỉ việc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cán bộ quản lý</t>
+  </si>
+  <si>
+    <t>Hiệu trưởng</t>
+  </si>
+  <si>
+    <t>Cơ hữu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảng viên cao cấp </t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>An GIang</t>
+  </si>
+  <si>
     <t>Quan Hệ Công Chúng</t>
+  </si>
+  <si>
+    <t>Thỉnh giảng</t>
+  </si>
+  <si>
+    <t>Giảng viên chính</t>
+  </si>
+  <si>
+    <t>T155450</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Lộc 4</t>
+  </si>
+  <si>
+    <t>An Giang 1</t>
+  </si>
+  <si>
+    <t>352363655</t>
+  </si>
+  <si>
+    <t>01632530556</t>
+  </si>
+  <si>
+    <t>haimuoibon026@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Nhân viên thư viện</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>T155451</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Lộc 5</t>
+  </si>
+  <si>
+    <t>352363656</t>
+  </si>
+  <si>
+    <t>haimuoibon027@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhân viên thiết bị, thí nghiệm</t>
+  </si>
+  <si>
+    <t>Trợ giảng</t>
+  </si>
+  <si>
+    <t>T155452</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Lộc 6</t>
+  </si>
+  <si>
+    <t>352363657</t>
+  </si>
+  <si>
+    <t>haimuoibon028@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhân viên y tế</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>T155453</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Lộc 7</t>
+  </si>
+  <si>
+    <t>352363658</t>
+  </si>
+  <si>
+    <t>haimuoibon029@gmail.com</t>
+  </si>
+  <si>
+    <t>Cán bộ hành chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinh   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kinh</t>
+  </si>
+  <si>
+    <t>Quan hệ công chúng</t>
+  </si>
+  <si>
+    <t>kinh</t>
+  </si>
+  <si>
+    <t>Ngày nghỉ hưu</t>
+  </si>
+  <si>
+    <t>haimuoibon020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Trình độ</t>
+  </si>
+  <si>
+    <t>Học vị</t>
+  </si>
+  <si>
+    <t>Đại học Văn Lang</t>
+  </si>
+  <si>
+    <t>Cử nhân</t>
+  </si>
+  <si>
+    <t>Thạc sĩ</t>
+  </si>
+  <si>
+    <t>Kĩ sư</t>
+  </si>
+  <si>
+    <t>Tiến sĩ</t>
+  </si>
+  <si>
+    <t>Kiến trúc sư</t>
+  </si>
+  <si>
+    <t>Chuyên khoa Y cấp I</t>
+  </si>
+  <si>
+    <t>Chuyên khoa Y cấp II</t>
+  </si>
+  <si>
+    <t>Nước cấp bằng 
+( ghi tên viết tắt )</t>
+  </si>
+  <si>
+    <t>vn</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công Nghệ Thông Tin       </t>
+  </si>
+  <si>
+    <t>Học hàm</t>
+  </si>
+  <si>
+    <t>Ngày công nhận</t>
+  </si>
+  <si>
+    <t>Giáo Sư</t>
+  </si>
+  <si>
+    <t>Phó Giáo Sư</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +382,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -225,12 +416,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,340 +782,812 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="4" customWidth="1"/>
     <col min="13" max="13" width="23.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
+    <col min="16" max="16" width="36.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="25" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="R1" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>35530</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4">
+        <v>352363654</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43200</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4">
-        <v>352363654</v>
-      </c>
-      <c r="J2" s="1">
-        <v>42104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1">
-        <v>43200</v>
-      </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="R2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="1">
+        <v>43479</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>35530</v>
+        <v>35591</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1">
         <v>42104</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1">
         <v>43200</v>
       </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35560</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43200</v>
+      </c>
+      <c r="N4" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>51</v>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>35560</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43200</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35560</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43200</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>35560</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43200</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="1">
+        <v>43479</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId1"/>
+    <hyperlink ref="L4" r:id="rId2"/>
+    <hyperlink ref="L5" r:id="rId3"/>
+    <hyperlink ref="L6" r:id="rId4"/>
+    <hyperlink ref="L2" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <ignoredErrors>
-    <ignoredError sqref="I3 L2:L3" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="15">
         <v>43200</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="15">
+        <v>43441</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43388</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43441</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="15">
         <v>43388</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15">
+        <v>43388</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D7" s="15">
         <v>43388</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D8" s="15">
         <v>43388</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
+      <c r="E8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43479</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43509</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
   <si>
     <t>Mã NV</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Kinh</t>
-  </si>
-  <si>
-    <t>Quan hệ công chúng</t>
   </si>
   <si>
     <t>kinh</t>
@@ -360,6 +357,18 @@
   </si>
   <si>
     <t>Phó Giáo Sư</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -769,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +870,7 @@
         <v>45</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>46</v>
@@ -881,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -908,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M2" s="1">
         <v>43200</v>
@@ -917,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="P2" t="s">
         <v>50</v>
@@ -994,7 +1003,7 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
         <v>84</v>
@@ -1012,7 +1021,7 @@
         <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -1059,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
         <v>65</v>
@@ -1074,10 +1083,10 @@
         <v>67</v>
       </c>
       <c r="V4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -1124,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="P5" t="s">
         <v>65</v>
@@ -1187,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s">
         <v>65</v>
@@ -1252,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="P7" t="s">
         <v>65</v>
@@ -1311,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>37</v>
@@ -1323,13 +1332,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1340,22 +1349,22 @@
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="15">
         <v>43200</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1372,16 +1381,16 @@
         <v>43441</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,16 +1407,16 @@
         <v>43388</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,16 +1433,16 @@
         <v>43388</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1450,16 +1459,16 @@
         <v>43388</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1476,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>38</v>
@@ -1476,16 +1485,16 @@
         <v>43388</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1493,7 +1502,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>39</v>
@@ -1502,16 +1511,16 @@
         <v>43388</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1536,18 +1545,18 @@
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>32</v>
@@ -1558,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1575,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\PortalVLU\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
     <sheet name="thông tin bằng cấp" sheetId="3" r:id="rId2"/>
     <sheet name="thông tin học hàm" sheetId="4" r:id="rId3"/>
+    <sheet name="Thông tin địa chỉ" sheetId="5" r:id="rId4"/>
+    <sheet name="Ghi chú" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
   <si>
     <t>Mã NV</t>
   </si>
@@ -190,9 +192,6 @@
     <t xml:space="preserve">Giảng viên cao cấp </t>
   </si>
   <si>
-    <t>Không</t>
-  </si>
-  <si>
     <t>An GIang</t>
   </si>
   <si>
@@ -334,10 +333,6 @@
     <t>Chuyên khoa Y cấp II</t>
   </si>
   <si>
-    <t>Nước cấp bằng 
-( ghi tên viết tắt )</t>
-  </si>
-  <si>
     <t>vn</t>
   </si>
   <si>
@@ -369,13 +364,61 @@
   </si>
   <si>
     <t>PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nước cấp bằng </t>
+  </si>
+  <si>
+    <t>Địa chỉ thường trú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ </t>
+  </si>
+  <si>
+    <t>Xã phường</t>
+  </si>
+  <si>
+    <t>Quận huyện</t>
+  </si>
+  <si>
+    <t>Tỉnh thành</t>
+  </si>
+  <si>
+    <t>Tôn giáo</t>
+  </si>
+  <si>
+    <t>Phật giáo</t>
+  </si>
+  <si>
+    <t>Hòa hảo</t>
+  </si>
+  <si>
+    <t>Trung An</t>
+  </si>
+  <si>
+    <t>Mỹ thới</t>
+  </si>
+  <si>
+    <t>Long Xuyên</t>
+  </si>
+  <si>
+    <t>Mỹ quý</t>
+  </si>
+  <si>
+    <t>Địa chỉ tạm trú ( liên lạc )</t>
+  </si>
+  <si>
+    <t>Trung An 1</t>
+  </si>
+  <si>
+    <t>Trung An 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +435,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -412,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -420,12 +472,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -434,31 +501,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -778,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,8 +869,9 @@
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="25.5703125" style="4" customWidth="1"/>
     <col min="13" max="13" width="23.85546875" customWidth="1"/>
     <col min="14" max="14" width="26.7109375" customWidth="1"/>
@@ -803,82 +884,83 @@
     <col min="22" max="22" width="18.85546875" customWidth="1"/>
     <col min="23" max="23" width="20.7109375" customWidth="1"/>
     <col min="24" max="24" width="19.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="6" t="s">
+      <c r="V1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -890,7 +972,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -917,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1">
         <v>43200</v>
@@ -926,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P2" t="s">
         <v>50</v>
@@ -959,7 +1041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -967,7 +1049,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -979,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>27</v>
@@ -1003,36 +1085,36 @@
         <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="R3" t="s">
         <v>49</v>
       </c>
       <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="W3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1041,25 +1123,25 @@
         <v>35560</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1">
         <v>42104</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="M4" s="1">
         <v>43200</v>
@@ -1068,33 +1150,33 @@
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="S4" t="s">
         <v>52</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V4" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="W4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1106,25 +1188,25 @@
         <v>35560</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="1">
         <v>42104</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1">
         <v>43200</v>
@@ -1133,31 +1215,28 @@
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s">
         <v>52</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1169,25 +1248,25 @@
         <v>35560</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1">
         <v>42104</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" s="1">
         <v>43200</v>
@@ -1196,19 +1275,19 @@
         <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s">
         <v>52</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s">
         <v>49</v>
@@ -1219,10 +1298,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1234,25 +1313,25 @@
         <v>35560</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="1">
         <v>42104</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" s="1">
         <v>43200</v>
@@ -1261,25 +1340,34 @@
         <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s">
         <v>49</v>
       </c>
       <c r="V7" s="1">
         <v>43479</v>
+      </c>
+      <c r="W7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1389,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,212 +1403,212 @@
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="C2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="7">
         <v>43200</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="7">
         <v>43441</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>96</v>
+      <c r="H3" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="7">
         <v>43388</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="E4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>97</v>
+      <c r="H4" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="7">
         <v>43388</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="E5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>98</v>
+      <c r="H5" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="7">
         <v>43388</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>99</v>
+      <c r="H6" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="7">
         <v>43388</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="E7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>98</v>
+      <c r="H7" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="7">
         <v>43388</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>96</v>
+      <c r="H8" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1622,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,20 +1633,20 @@
     <col min="5" max="5" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1567,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1584,10 +1672,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1">
         <v>43509</v>
@@ -1599,4 +1687,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
   <si>
     <t>Mã NV</t>
   </si>
@@ -412,6 +412,21 @@
   </si>
   <si>
     <t>Trung An 2</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>Trưởng Khoa</t>
+  </si>
+  <si>
+    <t>Phó trưởng phòng</t>
+  </si>
+  <si>
+    <t>dsadsa</t>
+  </si>
+  <si>
+    <t>Loại cán sự</t>
   </si>
 </sst>
 </file>
@@ -492,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -504,12 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -540,6 +549,15 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,86 +903,90 @@
     <col min="23" max="23" width="20.7109375" customWidth="1"/>
     <col min="24" max="24" width="19.42578125" customWidth="1"/>
     <col min="25" max="25" width="12.85546875" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:26" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1040,8 +1062,11 @@
       <c r="Y2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1131,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1171,7 +1196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1230,8 +1255,11 @@
         <v>72</v>
       </c>
       <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1295,8 +1323,11 @@
       <c r="V6" s="1">
         <v>43479</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1368,6 +1399,9 @@
       </c>
       <c r="X7" t="s">
         <v>49</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1423,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,28 +1438,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1634,19 +1668,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1693,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,50 +1746,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1770,7 +1804,7 @@
         <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>123</v>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\PortalVLU\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="131">
   <si>
     <t>Mã NV</t>
   </si>
@@ -387,9 +387,6 @@
     <t>Tôn giáo</t>
   </si>
   <si>
-    <t>Phật giáo</t>
-  </si>
-  <si>
     <t>Hòa hảo</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
   </si>
   <si>
     <t>Phó trưởng phòng</t>
-  </si>
-  <si>
-    <t>dsadsa</t>
   </si>
   <si>
     <t>Loại cán sự</t>
@@ -550,14 +544,14 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,7 +871,7 @@
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,8 +976,8 @@
       <c r="Y1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="22" t="s">
-        <v>132</v>
+      <c r="Z1" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1063,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -1256,7 +1250,7 @@
       </c>
       <c r="V5" s="1"/>
       <c r="Z5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1324,7 +1318,7 @@
         <v>43479</v>
       </c>
       <c r="Z6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1401,7 +1395,7 @@
         <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1722,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,28 +1740,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
         <v>114</v>
       </c>
@@ -1801,25 +1795,25 @@
         <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -1830,28 +1824,28 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
         <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>

--- a/public/template-personalinformation.xlsx
+++ b/public/template-personalinformation.xlsx
@@ -195,7 +195,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Nhập " x " nếu nhân viên đó đã nghĩ hưu.</t>
+Nhập " x " nếu nhân viên đó đã nghĩ hưu hoặc bỏ trống nếu chưa nghĩ hưu</t>
         </r>
       </text>
     </comment>
@@ -305,16 +305,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Admin:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Có thể bỏ trống nếu người đó không phải là cán sự
 Danh sách loại cán sự:
 -Trưởng khoa
 -Phó Trưởng khoa
@@ -495,7 +496,16 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Có thể bỏ trống nếu cột Mã NV không có giá trị.</t>
+Có thể bỏ trống nếu cột Mã NV không có giá trị.
+Các loại khối ngành:
+-Khối ngành I
+-Khối ngành II
+-Khối ngành III
+-Khối ngành IV
+-Khối ngành V
+-Khối ngành VI
+-Khối ngành VII
+</t>
         </r>
       </text>
     </comment>
@@ -504,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Mã NV</t>
   </si>
@@ -629,9 +639,6 @@
     <t>Trần Xuân Soạn</t>
   </si>
   <si>
-    <t>Loại hợp đồng</t>
-  </si>
-  <si>
     <t>Hợp đồng lao động</t>
   </si>
   <si>
@@ -741,6 +748,12 @@
   </si>
   <si>
     <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Loại hợp đồng*</t>
+  </si>
+  <si>
+    <t>Khi có gặp lỗi những dòng đã xóa rồi mà vẫn hiển thị trên trang web, vui lòng chọn những dòng bị lỗi và sử dụng "Delete row(s)" trên thanh công cụ mục Cells trong tab Home</t>
   </si>
 </sst>
 </file>
@@ -750,7 +763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,13 +807,26 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -831,7 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -882,6 +908,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1202,7 +1231,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,55 +1264,55 @@
   <sheetData>
     <row r="1" spans="1:27" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>7</v>
@@ -1313,7 +1342,7 @@
         <v>26</v>
       </c>
       <c r="AA1" s="18" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -1321,7 +1350,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1384,7 +1413,7 @@
         <v>14</v>
       </c>
       <c r="AA2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1418,28 +1447,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1506,7 +1535,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>6</v>
@@ -1539,16 +1568,16 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1">
         <v>43291</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1591,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:XFD2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,19 +1610,19 @@
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
@@ -1603,28 +1632,28 @@
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="H2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1672,14 +1701,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>